--- a/Resources/10-data.xlsx
+++ b/Resources/10-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>PO</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>HE01 - Set</t>
+  </si>
+  <si>
+    <t>Run Counter</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,9 +1091,10 @@
     <col min="17" max="17" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="21.85546875" style="2" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1151,8 +1155,11 @@
       <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1201,8 +1208,11 @@
       <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="U2" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>

--- a/Resources/10-data.xlsx
+++ b/Resources/10-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Custom Input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -212,8 +212,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,19 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -439,19 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -462,19 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -485,19 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -508,19 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -531,19 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -570,7 +570,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.49998474074526"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,7 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519242"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,47 +667,47 @@
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -716,64 +716,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="true"/>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="44"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="true"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1063,38 +1058,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="21.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="9.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="16" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="22.42578125" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="24.140625" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="18.28515625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="20.28515625" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="19.85546875" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="21.85546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="28.85546875" style="2" bestFit="true" customWidth="true"/>
+    <col min="18" max="19" width="21.85546875" style="2" customWidth="true"/>
+    <col min="20" max="20" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="true">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1209,10 +1204,10 @@
         <v>39</v>
       </c>
       <c r="U2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="true">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1271,43 +1266,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.85546875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="6.85546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="11" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="15" max="16" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="10.85546875" customWidth="true"/>
+    <col min="18" max="18" width="8.28515625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="12" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="8.85546875" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="11.85546875" bestFit="true" customWidth="true"/>
+    <col min="22" max="23" width="11.85546875" style="1" customWidth="true"/>
+    <col min="24" max="24" width="9.85546875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="16" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="9.28515625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="true">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
